--- a/Sunrise/Documents/Requirements.xlsx
+++ b/Sunrise/Documents/Requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MYDATA\Frelancing TDL\Documents\sun rise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MYDATA\Frelancing TDL\TDL\Sunrise\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C97022-CDA8-4ED3-A038-FF926F58E1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7D900-4823-413E-8884-0CB9B3D38F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Requirements</t>
   </si>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>Quotation Print Designing as per given format</t>
+  </si>
+  <si>
+    <t>Ebrahim Alwadi Trading</t>
+  </si>
+  <si>
+    <t>Midle East Mech &amp; Elect Services</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Sunrise Electrical Services</t>
+  </si>
+  <si>
+    <t>Purchase Documents</t>
+  </si>
+  <si>
+    <t>Sales Documents</t>
+  </si>
+  <si>
+    <t>Purchase Enq, LPO, Foreign Purc</t>
+  </si>
+  <si>
+    <t>Sales Quote, Cash sales, Tax Invoice</t>
+  </si>
+  <si>
+    <t>Local Purc Invoice</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Delivery Note,Tax Invoice</t>
+  </si>
+  <si>
+    <t>Quotation, Tax Invoice 2 formats</t>
   </si>
 </sst>
 </file>
@@ -155,10 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,20 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="116.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,14 +500,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
@@ -478,8 +537,23 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -489,8 +563,23 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -512,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -523,7 +612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -534,12 +623,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -547,7 +636,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -555,7 +644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -563,7 +652,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -571,7 +660,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -579,7 +668,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -587,7 +676,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -601,6 +690,11 @@
       </c>
       <c r="B17">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/Sunrise/Documents/Requirements.xlsx
+++ b/Sunrise/Documents/Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MYDATA\Frelancing TDL\TDL\Sunrise\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7D900-4823-413E-8884-0CB9B3D38F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C0ECB-5F09-4438-BC5F-B2695A051262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Requirements</t>
   </si>
@@ -148,6 +148,48 @@
   </si>
   <si>
     <t>Quotation, Tax Invoice 2 formats</t>
+  </si>
+  <si>
+    <t>Final Requirements</t>
+  </si>
+  <si>
+    <t>Purchase Enquery List with status for Purchase Order Report</t>
+  </si>
+  <si>
+    <t>Purchase Enquery to Purchase Order Tracking Multiple should show Only pending (Full Quantity will be consumed in One Purchase Order) need to update status once Purchase order created</t>
+  </si>
+  <si>
+    <t>Purchase Enquery And Purchase Order Print Format Customization As per Given</t>
+  </si>
+  <si>
+    <t>Purchase Invoice Print Format as per given format</t>
+  </si>
+  <si>
+    <t>Same Process Will Be happen for Foreign Purchase with separate Voucher Type</t>
+  </si>
+  <si>
+    <t>Purchase Process</t>
+  </si>
+  <si>
+    <t>Sales Process</t>
+  </si>
+  <si>
+    <t>Job Card Design as per our own with given fields</t>
+  </si>
+  <si>
+    <t>From Job card need print Job card and Sales Quotation format as per given</t>
+  </si>
+  <si>
+    <t>Delivery Note once created it will go for a Report which will ask LPO Number</t>
+  </si>
+  <si>
+    <t>Before LPO Number they will print Delivery Voucher It will print only Qty</t>
+  </si>
+  <si>
+    <t>After Entered LPO they can print Delivery Note Format as per Given</t>
+  </si>
+  <si>
+    <t>Sales invoice format printing as per given format(it will be print two types single line Description and multiple line description</t>
   </si>
 </sst>
 </file>
@@ -474,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="173" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
@@ -752,6 +794,76 @@
         <v>27</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sunrise/Documents/Requirements.xlsx
+++ b/Sunrise/Documents/Requirements.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MYDATA\Frelancing TDL\TDL\Sunrise\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M Hameed\G\Others\Sunrise\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C0ECB-5F09-4438-BC5F-B2695A051262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Requirements</t>
   </si>
@@ -190,12 +189,15 @@
   </si>
   <si>
     <t>Sales invoice format printing as per given format(it will be print two types single line Description and multiple line description</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="B36" sqref="B36:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,67 +801,82 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>

--- a/Sunrise/Documents/Requirements.xlsx
+++ b/Sunrise/Documents/Requirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Requirements</t>
   </si>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B38"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,25 +860,40 @@
       <c r="A41" t="s">
         <v>50</v>
       </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
